--- a/Martyr_Saints_of_China.xlsx
+++ b/Martyr_Saints_of_China.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benny\Documents\GitHub\Martyr_Saints_of_China\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A6008-9580-4591-AA1C-EBCCC024405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8706E-ABDF-4060-82A9-F739EED5E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1655,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2840,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
         <v>394</v>
@@ -2857,13 +2857,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
         <v>395</v>
